--- a/src/main/resources/excel/err_standard.xlsx
+++ b/src/main/resources/excel/err_standard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\project-hope\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0F40B5-D319-4BA0-96BB-FF8A1333B72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADC32E5-5346-4D13-9958-7A5A0B0FD5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -194,13 +194,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -485,51 +485,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.125" style="4" customWidth="1"/>
-    <col min="3" max="6" width="20.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="42.25" style="3" customWidth="1"/>
-    <col min="8" max="10" width="20.125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="41.875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.1328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.1328125" style="4" customWidth="1"/>
+    <col min="3" max="6" width="20.1328125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="42.265625" style="3" customWidth="1"/>
+    <col min="8" max="10" width="20.1328125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="41.86328125" style="3" customWidth="1"/>
     <col min="12" max="12" width="23" style="3" customWidth="1"/>
-    <col min="13" max="13" width="30.75" style="3" customWidth="1"/>
-    <col min="14" max="14" width="32.125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="32.375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="27.625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="20.125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="30.73046875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="32.1328125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="32.3984375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="27.59765625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="20.1328125" style="3" customWidth="1"/>
     <col min="18" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:17" s="5" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -578,7 +578,7 @@
       <c r="P2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="6" t="s">
         <v>17</v>
       </c>
     </row>
